--- a/analysis_SP/sp2020_c.xlsx
+++ b/analysis_SP/sp2020_c.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">cid_grupos</t>
   </si>
@@ -71,6 +71,9 @@
     <t xml:space="preserve">Idade ignorada</t>
   </si>
   <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
     <t xml:space="preserve">Doenças do aparelho circulatório</t>
   </si>
   <si>
@@ -84,6 +87,9 @@
   </si>
   <si>
     <t xml:space="preserve">Neoplasmas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros</t>
   </si>
 </sst>
 </file>
@@ -473,10 +479,13 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
         <v>84</v>
@@ -531,11 +540,14 @@
       </c>
       <c r="S2" t="n">
         <v>38</v>
+      </c>
+      <c r="T2" t="n">
+        <v>84467</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
         <v>37</v>
@@ -589,10 +601,13 @@
         <v>6423</v>
       </c>
       <c r="S3"/>
+      <c r="T3" t="n">
+        <v>12093</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="n">
         <v>199</v>
@@ -647,11 +662,14 @@
       </c>
       <c r="S4" t="n">
         <v>32</v>
+      </c>
+      <c r="T4" t="n">
+        <v>40409</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
         <v>42</v>
@@ -706,11 +724,14 @@
       </c>
       <c r="S5" t="n">
         <v>3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>17974</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
         <v>85</v>
@@ -765,6 +786,133 @@
       </c>
       <c r="S6" t="n">
         <v>7</v>
+      </c>
+      <c r="T6" t="n">
+        <v>55706</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5694</v>
+      </c>
+      <c r="C7" t="n">
+        <v>212</v>
+      </c>
+      <c r="D7" t="n">
+        <v>341</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1718</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3045</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2972</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3672</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4516</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5366</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6186</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7660</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9494</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11559</v>
+      </c>
+      <c r="O7" t="n">
+        <v>12841</v>
+      </c>
+      <c r="P7" t="n">
+        <v>13078</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>12987</v>
+      </c>
+      <c r="R7" t="n">
+        <v>37264</v>
+      </c>
+      <c r="S7" t="n">
+        <v>381</v>
+      </c>
+      <c r="T7" t="n">
+        <v>138986</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6141</v>
+      </c>
+      <c r="C8" t="n">
+        <v>364</v>
+      </c>
+      <c r="D8" t="n">
+        <v>544</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2185</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3858</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4060</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5423</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7337</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9811</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12822</v>
+      </c>
+      <c r="L8" t="n">
+        <v>17674</v>
+      </c>
+      <c r="M8" t="n">
+        <v>24309</v>
+      </c>
+      <c r="N8" t="n">
+        <v>31874</v>
+      </c>
+      <c r="O8" t="n">
+        <v>36854</v>
+      </c>
+      <c r="P8" t="n">
+        <v>38682</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>38869</v>
+      </c>
+      <c r="R8" t="n">
+        <v>108367</v>
+      </c>
+      <c r="S8" t="n">
+        <v>461</v>
+      </c>
+      <c r="T8" t="n">
+        <v>349635</v>
       </c>
     </row>
   </sheetData>
